--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\CarbonCopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63452651-0940-4A74-94DF-34E74FB217F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40ABB4-9080-484D-9A04-5FA3498D8787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2C3AE74-70C9-45E4-9DEB-3746231398A8}"/>
   </bookViews>
@@ -34,19 +34,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Aakash</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+  <si>
+    <t>S. No</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Policy open Date</t>
+  </si>
+  <si>
+    <t>Sum Assured</t>
+  </si>
+  <si>
+    <t>Aakash Kumar Singh</t>
+  </si>
+  <si>
+    <t>Sohan kumar</t>
+  </si>
+  <si>
+    <t>Bimlesh Tripathi</t>
+  </si>
+  <si>
+    <t>Rudra mahadeva</t>
+  </si>
+  <si>
+    <t>Aditya Prakash</t>
+  </si>
+  <si>
+    <t>Sourabh Srivastava</t>
+  </si>
+  <si>
+    <t>Dinesh Pogar</t>
+  </si>
+  <si>
+    <t>Ravishankar Mishra</t>
+  </si>
+  <si>
+    <t>Shivam Patel</t>
+  </si>
+  <si>
+    <t>Deewakar reddy</t>
+  </si>
+  <si>
+    <t>Sunesh bhardwaj</t>
+  </si>
+  <si>
+    <t>Rs 500000</t>
+  </si>
+  <si>
+    <t>Rs320000</t>
+  </si>
+  <si>
+    <t>Rs 450800</t>
+  </si>
+  <si>
+    <t>Rs1699999</t>
+  </si>
+  <si>
+    <t>Rs172600</t>
+  </si>
+  <si>
+    <t>Rs2109865</t>
+  </si>
+  <si>
+    <t>Rs3209463</t>
+  </si>
+  <si>
+    <t>Rs432039</t>
+  </si>
+  <si>
+    <t>Shivam Singh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,8 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,18 +470,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCEEAE5-F054-4AAD-AAA1-86DBEF4289EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>517213456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>517513453</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36693</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>517813450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36250</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>518113447</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>518413444</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>39760</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>518713441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40715</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>519013438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>519313435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36693</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>519613432</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36250</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>519913429</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>520213426</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39760</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>520513423</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40715</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>520813420</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>521113417</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36693</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>521413414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>36250</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>521713411</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>522013408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>39760</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>522313405</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40715</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>522613402</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>522913399</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36693</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>523213396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36250</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>523513393</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>523813390</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>39760</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>524113387</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40715</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>524413384</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>524713381</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36693</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>525013378</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36250</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>525313375</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1">
+        <v>38468</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>525613372</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1">
+        <v>39760</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>